--- a/artikel/artikel.xlsx
+++ b/artikel/artikel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwt/Documents/Code/Deutsch/artikel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwt/Documents/Code/gelato/artikel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4ABE86-1118-A946-8C82-A0A275D29FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517F650-7F6C-3D4D-8D92-2B8B3E688042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2D6BCF81-A2D9-5B4D-AD53-B365A8194329}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/artikel/artikel.xlsx
+++ b/artikel/artikel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwt/Documents/Code/gelato/artikel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517F650-7F6C-3D4D-8D92-2B8B3E688042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1498AE-E8B5-8942-8570-9F73D55C9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2D6BCF81-A2D9-5B4D-AD53-B365A8194329}"/>
+    <workbookView xWindow="460" yWindow="2020" windowWidth="28800" windowHeight="18000" xr2:uid="{2D6BCF81-A2D9-5B4D-AD53-B365A8194329}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Artikel</t>
   </si>
@@ -123,6 +123,123 @@
   </si>
   <si>
     <t>Coffee</t>
+  </si>
+  <si>
+    <t>Haar</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Stirn</t>
+  </si>
+  <si>
+    <t>Forehead</t>
+  </si>
+  <si>
+    <t>Schläfe</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Ohr</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>Wange</t>
+  </si>
+  <si>
+    <t>Cheek</t>
+  </si>
+  <si>
+    <t>Nase</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nasenloch</t>
+  </si>
+  <si>
+    <t>Nostril</t>
+  </si>
+  <si>
+    <t>Zahn</t>
+  </si>
+  <si>
+    <t>Teeth</t>
+  </si>
+  <si>
+    <t>Wimper</t>
+  </si>
+  <si>
+    <t>Eyelash</t>
+  </si>
+  <si>
+    <t>Lippe</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Mund</t>
+  </si>
+  <si>
+    <t>Kinn</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>Lower Jaw</t>
+  </si>
+  <si>
+    <t>Unterkiefer</t>
+  </si>
+  <si>
+    <t>Haut</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Muttermal</t>
+  </si>
+  <si>
+    <t>Birthmark</t>
+  </si>
+  <si>
+    <t>Grübchen</t>
+  </si>
+  <si>
+    <t>Dimple</t>
+  </si>
+  <si>
+    <t>Sommersprossen</t>
+  </si>
+  <si>
+    <t>Freckles</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Face</t>
   </si>
 </sst>
 </file>
@@ -474,15 +591,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AD30F3-BC96-AA4E-AB81-F5562BDF30AC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +612,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -503,8 +626,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -514,8 +640,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -525,8 +654,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -536,8 +668,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -547,8 +682,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -558,8 +696,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -569,8 +710,11 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -580,8 +724,11 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -591,8 +738,11 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -602,8 +752,11 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -612,6 +765,247 @@
       </c>
       <c r="C13" t="s">
         <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
